--- a/medicine/Mort/Le_Faucheur_(Terry_Pratchett)/Le_Faucheur_(Terry_Pratchett).xlsx
+++ b/medicine/Mort/Le_Faucheur_(Terry_Pratchett)/Le_Faucheur_(Terry_Pratchett).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Faucheur est le onzième livre des Annales du Disque-monde de l'écrivain anglais Terry Pratchett, publié en France en 1998.
 L'œuvre originale fut publiée en 1991 sous le titre Reaper Man, avec une traduction de Patrick Couton.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les contrôleurs de la réalité mettent La Mort à la retraite, n'appréciant pas son intérêt pour les humains. Plus personne n'étant là pour les guider vers l'au-delà, les morts-vivants commencent à pulluler sur le Disque-monde, et à Ankh-Morpork en particulier où l'absence de mort provoque un excès d'énergie vitale, donnant vie à de nombreuses choses inanimées, ce qui crée une pagaille encore jamais connue (une alliance entre prêtres et mages est même envisagée).
 La Mort trouve du travail comme faucheur au pays de l'herbe octarine, chez mademoiselle Trottemenu, où il découvre la mortalité et ressent désormais le poids des secondes qui s'écoulent dans les fameux sabliers.
@@ -544,7 +558,9 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La mort, et ce qui se passe après (sur le même sujet, voir aussi Mortimer et Accros du roc) mais aussi avant et pendant.
 La vie et le temps qui passe.
@@ -579,7 +595,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Mort, alias Pierre Porte ;
 Mademoiselle Trottemenu ;
